--- a/static/historial_completo.xlsx
+++ b/static/historial_completo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -481,291 +481,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Accidente</t>
+          <t>Apertura de puertas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Moto B7</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>13:39:35</t>
+          <t>07:42:26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Perimetrales</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>63</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Accidente</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>B7</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>11:42:33</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Perimetrales</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>62</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Cierres/Balizajes</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>sdvfsdf</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>11:42:13</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Motos</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>61</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Novedad Miro</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>11:42:05</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Programacion</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>60</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Cierres/Balizajes</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>b8</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>11:41:56</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>59</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Cierres/Balizajes</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>b8</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>11:36:33</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>58</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Accidente</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>11:36:21</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>57</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Accidente</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>10:34:03</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>56</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Apertura de puertas</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Apertura PDV</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>10:16:57</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Punto de venta</t>
+          <t>Oficinas</t>
         </is>
       </c>
     </row>
